--- a/04_SC_NR/DT/sorted_bridges.xlsx
+++ b/04_SC_NR/DT/sorted_bridges.xlsx
@@ -801,7 +801,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vodný tok,  Kanál</t>
+          <t>Vodný tok</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Vodný tok,  Kanál</t>
+          <t>Vodný tok</t>
         </is>
       </c>
     </row>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Iná prekážka</t>
+          <t>Kanál</t>
         </is>
       </c>
     </row>
